--- a/biology/Zoologie/Colomascirtus/Colomascirtus.xlsx
+++ b/biology/Zoologie/Colomascirtus/Colomascirtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colomascirtus est un genre d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colomascirtus est un genre d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Amphibian Species of the World, comme pour l’ITIS, ce genre est invalide et synonyme de Hyloscirtus Peters, 1882.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Colomascirtus antioquia (Rivera-Correa &amp; Faivovich, 2013)
 Colomascirtus armatus (Boulenger, 1902)
 Colomascirtus caucanus (Ardila-Robayo, Ruiz-Carranza, &amp; Roa-Trujillo, 1993)
@@ -589,7 +605,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William E. Duellman, Angela B. Marion et S. Blair Hedges, « Phylogenetics, classification, and biogeography of the treefrogs (Amphibia: Anura: Arboranae) », Zootaxa, Magnolia Press (d), vol. 4104, no 1,‎ 19 avril 2016, p. 1–109 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 27394762, DOI 10.11646/ZOOTAXA.4104.1.1)</t>
         </is>
